--- a/data/trans_orig/CoTrAQ-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>12412</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6814</v>
+        <v>6693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20545</v>
+        <v>21255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04195511899124037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02303325180962504</v>
+        <v>0.02262515174567797</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06944603550651153</v>
+        <v>0.07184828586040566</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -763,19 +763,19 @@
         <v>10090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5025</v>
+        <v>5034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19480</v>
+        <v>19100</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05361882677156386</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02670490461063657</v>
+        <v>0.02675401066517072</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1035229719730268</v>
+        <v>0.1015015027036553</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -784,19 +784,19 @@
         <v>22502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15004</v>
+        <v>14526</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34370</v>
+        <v>32776</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04648973864778455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03099925912152001</v>
+        <v>0.03001198886713915</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07101037030709101</v>
+        <v>0.06771685211141872</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>25234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16587</v>
+        <v>16220</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36987</v>
+        <v>37329</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08529681908341295</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05606847706864525</v>
+        <v>0.05482689993034941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1250237967936886</v>
+        <v>0.1261793224002662</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -834,19 +834,19 @@
         <v>19820</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11874</v>
+        <v>12066</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30413</v>
+        <v>29776</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1053293561894619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0631007580225284</v>
+        <v>0.06411916313735856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1616216548511862</v>
+        <v>0.1582367681634909</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -855,19 +855,19 @@
         <v>45054</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32761</v>
+        <v>32168</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59784</v>
+        <v>59740</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09308507460579374</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06768727741479952</v>
+        <v>0.06646043447629989</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.123518405517398</v>
+        <v>0.1234256601801745</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>258192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>245358</v>
+        <v>245033</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>268839</v>
+        <v>269348</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8727480619253467</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8293665865984035</v>
+        <v>0.8282659145409678</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9087380015361185</v>
+        <v>0.9104582741495761</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -905,19 +905,19 @@
         <v>158264</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>146808</v>
+        <v>146517</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>167862</v>
+        <v>167675</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8410518170389742</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.780171415799975</v>
+        <v>0.7786249984091674</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8920588569042918</v>
+        <v>0.8910642740004446</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>383</v>
@@ -926,19 +926,19 @@
         <v>416456</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>398237</v>
+        <v>399876</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>432068</v>
+        <v>430954</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8604251867464217</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8227824721634556</v>
+        <v>0.8261687848661781</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8926793158279734</v>
+        <v>0.8903785014980133</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>20389</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13309</v>
+        <v>13099</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31235</v>
+        <v>31185</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08169576817921301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05332870586524244</v>
+        <v>0.05248525045438623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1251577291097712</v>
+        <v>0.1249534238597456</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -1051,19 +1051,19 @@
         <v>26485</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16463</v>
+        <v>17831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38181</v>
+        <v>37785</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1736690726187755</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1079502034356973</v>
+        <v>0.1169212852310067</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2503670859143072</v>
+        <v>0.2477693738631175</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -1072,19 +1072,19 @@
         <v>46873</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>34305</v>
+        <v>33970</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62652</v>
+        <v>61564</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1165802697914825</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08532058691943743</v>
+        <v>0.08448909411083486</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1558251271159196</v>
+        <v>0.1531171322596272</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>39185</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27393</v>
+        <v>26724</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52497</v>
+        <v>53950</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1570094562361275</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1097603738068869</v>
+        <v>0.1070800737496073</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2103522589587576</v>
+        <v>0.2161744518341354</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -1122,19 +1122,19 @@
         <v>27604</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19013</v>
+        <v>18649</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38664</v>
+        <v>39477</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1810096955696171</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1246737319231953</v>
+        <v>0.1222878842168234</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2535338859821272</v>
+        <v>0.2588627476667902</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>60</v>
@@ -1143,19 +1143,19 @@
         <v>66789</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51500</v>
+        <v>51875</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>84725</v>
+        <v>85212</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1661124931752225</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1280878639403235</v>
+        <v>0.1290191564996879</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2107225797889806</v>
+        <v>0.2119348501240035</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>189996</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172663</v>
+        <v>173182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202934</v>
+        <v>203041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7612947755846595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6918436035416033</v>
+        <v>0.6939224566195585</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.813138898899154</v>
+        <v>0.8135669438598226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -1193,19 +1193,19 @@
         <v>98412</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86257</v>
+        <v>85478</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111991</v>
+        <v>110907</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6453212318116075</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5656154247556201</v>
+        <v>0.5605077243467375</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7343602719091898</v>
+        <v>0.7272525298477438</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>262</v>
@@ -1214,19 +1214,19 @@
         <v>288407</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>268290</v>
+        <v>267475</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>306949</v>
+        <v>305993</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7173072370332949</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6672743565145846</v>
+        <v>0.6652462627001151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7634230124998784</v>
+        <v>0.7610450674480512</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>25729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16654</v>
+        <v>16532</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37340</v>
+        <v>37032</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09335712196396036</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06043041499420541</v>
+        <v>0.05998805134123718</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1354899471045781</v>
+        <v>0.1343722273062717</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1339,19 +1339,19 @@
         <v>7270</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3196</v>
+        <v>3113</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14210</v>
+        <v>14193</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06822754061043848</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02999100275642264</v>
+        <v>0.0292118431938869</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.13336672415642</v>
+        <v>0.1332022818667427</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -1360,19 +1360,19 @@
         <v>32998</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23029</v>
+        <v>23447</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>46918</v>
+        <v>46113</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08635033741902483</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06026175858256523</v>
+        <v>0.0613571786062977</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1227750246727768</v>
+        <v>0.1206684422141682</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>35329</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26000</v>
+        <v>25445</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46844</v>
+        <v>46256</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1281910906369695</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09434249474040561</v>
+        <v>0.09232867362968104</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1699766363865938</v>
+        <v>0.1678419116929273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1410,19 +1410,19 @@
         <v>11078</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5957</v>
+        <v>5450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18584</v>
+        <v>18507</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1039726121419701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05590932160445768</v>
+        <v>0.05114882728330276</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1744108201263547</v>
+        <v>0.1736861926884358</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -1431,19 +1431,19 @@
         <v>46407</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35544</v>
+        <v>35657</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60646</v>
+        <v>60123</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1214383453988626</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0930115413156377</v>
+        <v>0.0933066333897502</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1586990322134425</v>
+        <v>0.1573292304097651</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>214536</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>200241</v>
+        <v>200230</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>227542</v>
+        <v>227758</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7784517873990702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7265831289234774</v>
+        <v>0.726541533705907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8256442928773807</v>
+        <v>0.8264292047932675</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -1481,19 +1481,19 @@
         <v>88204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80016</v>
+        <v>79104</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95429</v>
+        <v>95412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8277998472475915</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7509569417365453</v>
+        <v>0.7423941299739578</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8956131718392883</v>
+        <v>0.8954540793507245</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>293</v>
@@ -1502,19 +1502,19 @@
         <v>302740</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>286307</v>
+        <v>286206</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>317472</v>
+        <v>318062</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7922113171821126</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7492116281877095</v>
+        <v>0.7489448260300199</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.830764013241709</v>
+        <v>0.8323061262650817</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>77051</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63056</v>
+        <v>62175</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94046</v>
+        <v>94237</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1882322971691493</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1540417873827793</v>
+        <v>0.1518912190990874</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2297491285559824</v>
+        <v>0.2302172281084531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1627,19 +1627,19 @@
         <v>56714</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44517</v>
+        <v>43496</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72426</v>
+        <v>71000</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1984427961132189</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1557646396974024</v>
+        <v>0.1521921067767696</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2534174054920855</v>
+        <v>0.2484274547911183</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -1648,19 +1648,19 @@
         <v>133766</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112457</v>
+        <v>114343</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>154989</v>
+        <v>157232</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1924302095420815</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1617772252907907</v>
+        <v>0.1644896851405308</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2229621744423045</v>
+        <v>0.2261877749817937</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>89992</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73917</v>
+        <v>75381</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>109311</v>
+        <v>108440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2198458216788125</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.180575399406765</v>
+        <v>0.1841529548899714</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2670412336456966</v>
+        <v>0.2649138353520157</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -1698,19 +1698,19 @@
         <v>65207</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52311</v>
+        <v>52042</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79921</v>
+        <v>81480</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.22815856128758</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.183036687686812</v>
+        <v>0.1820953624481266</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2796442575706832</v>
+        <v>0.2850974797713238</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>145</v>
@@ -1719,19 +1719,19 @@
         <v>155199</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>132777</v>
+        <v>132509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>177763</v>
+        <v>178891</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2232634952565446</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1910081409827699</v>
+        <v>0.1906231025527393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2557229383416179</v>
+        <v>0.2573464072163347</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>242298</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>219469</v>
+        <v>221495</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>261923</v>
+        <v>261595</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5919218811520383</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5361512803985489</v>
+        <v>0.5411002392787181</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6398660556463882</v>
+        <v>0.6390632913779961</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>155</v>
@@ -1769,19 +1769,19 @@
         <v>163876</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>145160</v>
+        <v>146766</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>179349</v>
+        <v>180522</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5733986425992011</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5079135451117345</v>
+        <v>0.5135333438148996</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6275400141361895</v>
+        <v>0.631642614495742</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>387</v>
@@ -1790,19 +1790,19 @@
         <v>406174</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>380754</v>
+        <v>379023</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>431150</v>
+        <v>432734</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.584306295201374</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5477384679867121</v>
+        <v>0.5452481550500746</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.620236847183615</v>
+        <v>0.6225153322164396</v>
       </c>
     </row>
     <row r="19">
@@ -1894,19 +1894,19 @@
         <v>47453</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36900</v>
+        <v>35845</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60710</v>
+        <v>59012</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3260587421704393</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2535439188374389</v>
+        <v>0.2462999021781663</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4171505061326486</v>
+        <v>0.4054860465323298</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -1915,19 +1915,19 @@
         <v>53009</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40658</v>
+        <v>40428</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>66452</v>
+        <v>66154</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3141797093321386</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2409752061648072</v>
+        <v>0.2396169375445077</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3938582899945716</v>
+        <v>0.3920917424098386</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>91</v>
@@ -1936,19 +1936,19 @@
         <v>100462</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84391</v>
+        <v>81751</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>118730</v>
+        <v>117750</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3196810015180206</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2685421142069896</v>
+        <v>0.260139908252819</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3778118447519379</v>
+        <v>0.3746922352977495</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>25440</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17904</v>
+        <v>17289</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35304</v>
+        <v>36654</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1748063226334579</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1230249864874827</v>
+        <v>0.1187968142189871</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2425780478295073</v>
+        <v>0.2518586430805373</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -1986,19 +1986,19 @@
         <v>34316</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24320</v>
+        <v>24309</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44388</v>
+        <v>46657</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2033870751965499</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1441422820087929</v>
+        <v>0.1440774112553226</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2630861099109973</v>
+        <v>0.2765325628079368</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>57</v>
@@ -2007,19 +2007,19 @@
         <v>59756</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>46159</v>
+        <v>46973</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>74632</v>
+        <v>74856</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1901510590256865</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1468830258559567</v>
+        <v>0.1494744195036922</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2374883468972298</v>
+        <v>0.2382009467415688</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>72642</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60008</v>
+        <v>59564</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84802</v>
+        <v>84082</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4991349351961028</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4123249640566004</v>
+        <v>0.4092730642706022</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.582692165603315</v>
+        <v>0.5777436573602829</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -2057,19 +2057,19 @@
         <v>81397</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67838</v>
+        <v>68294</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>95105</v>
+        <v>95692</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4824332154713116</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4020727851665731</v>
+        <v>0.4047770962421809</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5636834767489272</v>
+        <v>0.5671589245660229</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>142</v>
@@ -2078,19 +2078,19 @@
         <v>154039</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136791</v>
+        <v>137087</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>171607</v>
+        <v>175176</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4901679394562929</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4352842159454715</v>
+        <v>0.4362242789721476</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5460716154795948</v>
+        <v>0.5574297989736093</v>
       </c>
     </row>
     <row r="23">
@@ -2182,19 +2182,19 @@
         <v>183033</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1330304972273066</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>137</v>
@@ -2203,19 +2203,19 @@
         <v>153567</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1703000622688544</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>307</v>
@@ -2224,19 +2224,19 @@
         <v>336601</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.147786091608714</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
     </row>
     <row r="25">
@@ -2253,19 +2253,19 @@
         <v>215180</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>188168</v>
+        <v>189348</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>245773</v>
+        <v>243640</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1563946849708468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1367625222447633</v>
+        <v>0.1376198018430581</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1786298360038715</v>
+        <v>0.1770798437200174</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>149</v>
@@ -2274,19 +2274,19 @@
         <v>158026</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>136006</v>
+        <v>136073</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>182016</v>
+        <v>183408</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1752441949134881</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1508252784771349</v>
+        <v>0.1509000997107398</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2018485144813637</v>
+        <v>0.2033919992856008</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>351</v>
@@ -2295,19 +2295,19 @@
         <v>373205</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>338277</v>
+        <v>338974</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>415945</v>
+        <v>409650</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1638574960525393</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1485219544206734</v>
+        <v>0.1488282812431274</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1826226624788265</v>
+        <v>0.179858649925701</v>
       </c>
     </row>
     <row r="26">
@@ -2324,19 +2324,19 @@
         <v>977663</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7105748178018465</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>546</v>
@@ -2345,19 +2345,19 @@
         <v>590152</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6544557428176576</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1467</v>
@@ -2366,19 +2366,19 @@
         <v>1567815</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6883564123387467</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
     </row>
     <row r="27">
@@ -2711,19 +2711,19 @@
         <v>27083</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17515</v>
+        <v>18122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38615</v>
+        <v>40299</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09810934174212524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0634488671958609</v>
+        <v>0.0656468497565682</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1398807725060832</v>
+        <v>0.145982742555487</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2732,19 +2732,19 @@
         <v>26248</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18094</v>
+        <v>16336</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38382</v>
+        <v>36981</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1225526866179179</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08448052653697073</v>
+        <v>0.07627348237699291</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1792087465630435</v>
+        <v>0.1726667292785249</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -2753,19 +2753,19 @@
         <v>53331</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40811</v>
+        <v>40474</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69138</v>
+        <v>69283</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.10878835011675</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08324931799906708</v>
+        <v>0.08256217467058644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1410327977558641</v>
+        <v>0.1413287486148456</v>
       </c>
     </row>
     <row r="5">
@@ -2782,19 +2782,19 @@
         <v>41848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29305</v>
+        <v>30178</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55291</v>
+        <v>55136</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1515927839233364</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1061558932178464</v>
+        <v>0.1093185798803027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2002921728004323</v>
+        <v>0.1997290530265308</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -2803,19 +2803,19 @@
         <v>42865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31602</v>
+        <v>32337</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54967</v>
+        <v>55061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2001395801906661</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1475535453859404</v>
+        <v>0.1509862768033695</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2566457796574103</v>
+        <v>0.2570853831802116</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -2824,19 +2824,19 @@
         <v>84712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>68456</v>
+        <v>70049</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102377</v>
+        <v>103404</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1728023052279857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1396415515837277</v>
+        <v>0.1428915832056026</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.208835038550236</v>
+        <v>0.2109306925121975</v>
       </c>
     </row>
     <row r="6">
@@ -2853,19 +2853,19 @@
         <v>207122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>190759</v>
+        <v>192104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>221816</v>
+        <v>222899</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7502978743345384</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6910215856485686</v>
+        <v>0.6958944132865722</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8035278448842857</v>
+        <v>0.8074512669254359</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>141</v>
@@ -2874,19 +2874,19 @@
         <v>145062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>129911</v>
+        <v>131282</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>157834</v>
+        <v>158429</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.677307733191416</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6065684876888404</v>
+        <v>0.6129681884187591</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7369449359738163</v>
+        <v>0.7397230988690506</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>332</v>
@@ -2895,19 +2895,19 @@
         <v>352184</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>332138</v>
+        <v>332438</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>372826</v>
+        <v>371462</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7184093446552643</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.677518678642876</v>
+        <v>0.6781308659891216</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7605169959356433</v>
+        <v>0.7577338956295958</v>
       </c>
     </row>
     <row r="7">
@@ -2999,19 +2999,19 @@
         <v>48465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36073</v>
+        <v>36045</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>63787</v>
+        <v>62443</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1992510835020092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1483049748417981</v>
+        <v>0.1481878945862863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2622413153490175</v>
+        <v>0.2567176891470017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -3020,19 +3020,19 @@
         <v>63087</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50406</v>
+        <v>51284</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76794</v>
+        <v>78550</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3334811700963967</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2664509061443009</v>
+        <v>0.2710899484479226</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4059375876111868</v>
+        <v>0.415223690774409</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>105</v>
@@ -3041,19 +3041,19 @@
         <v>111552</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>95165</v>
+        <v>93617</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>131539</v>
+        <v>131235</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2579753247057096</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2200794199085067</v>
+        <v>0.2165000942867963</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3041980369846287</v>
+        <v>0.3034945007428524</v>
       </c>
     </row>
     <row r="9">
@@ -3070,19 +3070,19 @@
         <v>51289</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>39493</v>
+        <v>39392</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>64218</v>
+        <v>65474</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.210862228252375</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.162362333951387</v>
+        <v>0.1619483739895393</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2640143325712282</v>
+        <v>0.2691773330639265</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>38</v>
@@ -3091,19 +3091,19 @@
         <v>39053</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>28295</v>
+        <v>29146</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52061</v>
+        <v>52195</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2064396971154608</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1495680925681353</v>
+        <v>0.1540683645873871</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2752007353155059</v>
+        <v>0.2759058147904905</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -3112,19 +3112,19 @@
         <v>90343</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>72286</v>
+        <v>74210</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>108447</v>
+        <v>109442</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2089274177206661</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1671691882129381</v>
+        <v>0.1716179816471004</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2507957105775172</v>
+        <v>0.2530953068571367</v>
       </c>
     </row>
     <row r="10">
@@ -3141,19 +3141,19 @@
         <v>143482</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127024</v>
+        <v>126828</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158849</v>
+        <v>159579</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5898866882456159</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5222231517723984</v>
+        <v>0.5214183990452863</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6530644134433983</v>
+        <v>0.6560652552714867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -3162,19 +3162,19 @@
         <v>87036</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74239</v>
+        <v>73631</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101901</v>
+        <v>100766</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4600791327881424</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3924322588288567</v>
+        <v>0.3892212100205091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5386547295127266</v>
+        <v>0.5326599967991612</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>215</v>
@@ -3183,19 +3183,19 @@
         <v>230518</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>207603</v>
+        <v>210153</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>252283</v>
+        <v>252380</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5330972575736244</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4801043631291383</v>
+        <v>0.4859997542720514</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5834314918588717</v>
+        <v>0.5836549575744482</v>
       </c>
     </row>
     <row r="11">
@@ -3287,19 +3287,19 @@
         <v>38507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28289</v>
+        <v>27123</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51830</v>
+        <v>51118</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1780050222179401</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1307729325316262</v>
+        <v>0.1253785240414369</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2395925171014215</v>
+        <v>0.2363022877017615</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6613</v>
+        <v>6345</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02955561239379182</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1015584024408677</v>
+        <v>0.09743763801935054</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -3329,19 +3329,19 @@
         <v>40432</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28850</v>
+        <v>28571</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54842</v>
+        <v>52966</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1436580759814051</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1025057843120658</v>
+        <v>0.1015176495114682</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1948617263310017</v>
+        <v>0.188193571908758</v>
       </c>
     </row>
     <row r="13">
@@ -3358,19 +3358,19 @@
         <v>34363</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24611</v>
+        <v>24618</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46720</v>
+        <v>45890</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1588467282201048</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1137708902429814</v>
+        <v>0.1138029987492884</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2159708082132437</v>
+        <v>0.2121362598741383</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3379,19 +3379,19 @@
         <v>7540</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3508</v>
+        <v>3563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13657</v>
+        <v>13703</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1157886693996729</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05387385248669685</v>
+        <v>0.05471135681047984</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2097264561444279</v>
+        <v>0.2104318156729023</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -3400,19 +3400,19 @@
         <v>41902</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30646</v>
+        <v>30716</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54672</v>
+        <v>55644</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1488843253172786</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1088872615469093</v>
+        <v>0.1091378215097817</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1942564360930932</v>
+        <v>0.1977079721944235</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>143456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128406</v>
+        <v>127480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>156624</v>
+        <v>157348</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6631482495619551</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5935793845495582</v>
+        <v>0.5892996691677409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7240225606654014</v>
+        <v>0.7273674497516774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -3450,19 +3450,19 @@
         <v>55653</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49753</v>
+        <v>48960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60435</v>
+        <v>60449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8546557182065353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.764046535714116</v>
+        <v>0.751866138237156</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9280812432354572</v>
+        <v>0.9282961677083749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>190</v>
@@ -3471,19 +3471,19 @@
         <v>199109</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>182695</v>
+        <v>182768</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>214383</v>
+        <v>214412</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7074575987013163</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6491366054389146</v>
+        <v>0.6493960399892359</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7617266278529684</v>
+        <v>0.7618307319937143</v>
       </c>
     </row>
     <row r="15">
@@ -3575,19 +3575,19 @@
         <v>141032</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122957</v>
+        <v>122778</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>164183</v>
+        <v>162406</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2891772345737542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2521156467451675</v>
+        <v>0.2517477371391602</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3366478448256661</v>
+        <v>0.3330041429957829</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>116</v>
@@ -3596,19 +3596,19 @@
         <v>115768</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99452</v>
+        <v>100698</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132856</v>
+        <v>133628</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3172219946270335</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2725150660283033</v>
+        <v>0.2759287757576416</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3640458026028321</v>
+        <v>0.3661621097947637</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>247</v>
@@ -3617,19 +3617,19 @@
         <v>256799</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>231024</v>
+        <v>230927</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>281786</v>
+        <v>284560</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3011807434050321</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2709503034927846</v>
+        <v>0.2708367333531005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3304859835754186</v>
+        <v>0.3337393610166852</v>
       </c>
     </row>
     <row r="17">
@@ -3646,19 +3646,19 @@
         <v>135066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>114158</v>
+        <v>113885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>155346</v>
+        <v>154845</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2769448183109788</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2340731984595985</v>
+        <v>0.2335146784993586</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3185265579542977</v>
+        <v>0.3175007654641777</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>81</v>
@@ -3667,19 +3667,19 @@
         <v>81669</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65845</v>
+        <v>66377</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>98630</v>
+        <v>100095</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2237862824517153</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1804269647387504</v>
+        <v>0.1818847779398562</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2702628626722005</v>
+        <v>0.2742775136689081</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>211</v>
@@ -3688,19 +3688,19 @@
         <v>216735</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>193125</v>
+        <v>191418</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>244827</v>
+        <v>239070</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2541922986448366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2265021339591582</v>
+        <v>0.2244994599735132</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2871389809002191</v>
+        <v>0.280387152686712</v>
       </c>
     </row>
     <row r="18">
@@ -3717,19 +3717,19 @@
         <v>211603</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>189299</v>
+        <v>190643</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>234160</v>
+        <v>234435</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4338779471152671</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3881447698931767</v>
+        <v>0.3909019818542774</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4801294933640036</v>
+        <v>0.4806949038372757</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>163</v>
@@ -3738,19 +3738,19 @@
         <v>167505</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>148195</v>
+        <v>150356</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>188017</v>
+        <v>186726</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4589917229212512</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4060782937619729</v>
+        <v>0.4119999173193609</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5151976164452182</v>
+        <v>0.5116598881110112</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>365</v>
@@ -3759,19 +3759,19 @@
         <v>379108</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>351041</v>
+        <v>351916</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>408028</v>
+        <v>408997</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4446269579501312</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4117095962769197</v>
+        <v>0.4127360752457109</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4785453246952171</v>
+        <v>0.4796823853381816</v>
       </c>
     </row>
     <row r="19">
@@ -3863,19 +3863,19 @@
         <v>88508</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74745</v>
+        <v>74048</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102967</v>
+        <v>101984</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4585368534987669</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3872334292993043</v>
+        <v>0.3836268814730575</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.533446470597288</v>
+        <v>0.5283554745626139</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -3884,19 +3884,19 @@
         <v>90662</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76402</v>
+        <v>76929</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>103084</v>
+        <v>103798</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4587727381338493</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3866106024895631</v>
+        <v>0.3892815838423335</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5216324185052172</v>
+        <v>0.5252436667811436</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>168</v>
@@ -3905,19 +3905,19 @@
         <v>179169</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>161208</v>
+        <v>157496</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>201412</v>
+        <v>199156</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4586561838312883</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4126761705286275</v>
+        <v>0.4031744677582212</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.51559428995583</v>
+        <v>0.5098209260409425</v>
       </c>
     </row>
     <row r="21">
@@ -3934,19 +3934,19 @@
         <v>40606</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29315</v>
+        <v>30435</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52728</v>
+        <v>52645</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2103714911467914</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1518719224497585</v>
+        <v>0.1576785095967201</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2731711606438232</v>
+        <v>0.2727410373828557</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>47</v>
@@ -3955,19 +3955,19 @@
         <v>48738</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>38174</v>
+        <v>38636</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>63443</v>
+        <v>63545</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.246623564218879</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1931672145779731</v>
+        <v>0.1955054397578554</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3210359585597045</v>
+        <v>0.3215552768143969</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>86</v>
@@ -3976,19 +3976,19 @@
         <v>89344</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>72344</v>
+        <v>74162</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>107492</v>
+        <v>107790</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2287108456060981</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1851937598720638</v>
+        <v>0.1898469490801414</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2751698493118949</v>
+        <v>0.2759309258998248</v>
       </c>
     </row>
     <row r="22">
@@ -4005,19 +4005,19 @@
         <v>63908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50060</v>
+        <v>52298</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76921</v>
+        <v>78187</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3310916553544416</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2593484441908327</v>
+        <v>0.270944317277708</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3985071947385882</v>
+        <v>0.4050667551099815</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -4026,19 +4026,19 @@
         <v>58219</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45825</v>
+        <v>46346</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70458</v>
+        <v>70976</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2946036976472717</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2318832221529585</v>
+        <v>0.234520919493528</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.356536679515637</v>
+        <v>0.3591566207316704</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>114</v>
@@ -4047,19 +4047,19 @@
         <v>122127</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>105394</v>
+        <v>103855</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>141538</v>
+        <v>139871</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3126329705626137</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.269798625156303</v>
+        <v>0.2658579778599782</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3623224322832371</v>
+        <v>0.358055691974682</v>
       </c>
     </row>
     <row r="23">
@@ -4151,19 +4151,19 @@
         <v>343595</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2425940892849737</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>293</v>
@@ -4172,19 +4172,19 @@
         <v>297689</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>267499</v>
+        <v>271017</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>325728</v>
+        <v>327725</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2887296171785275</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2594486041582725</v>
+        <v>0.2628605376623983</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3159253514609521</v>
+        <v>0.3178616538183013</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>606</v>
@@ -4193,19 +4193,19 @@
         <v>641283</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>597731</v>
+        <v>597094</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>683961</v>
+        <v>682824</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2620301122341502</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2442345787764788</v>
+        <v>0.243974431852603</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2794682591291431</v>
+        <v>0.2790037478403518</v>
       </c>
     </row>
     <row r="25">
@@ -4222,19 +4222,19 @@
         <v>303172</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>274480</v>
+        <v>273334</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>338889</v>
+        <v>336286</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2140535988257846</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1937955574062273</v>
+        <v>0.192986362623363</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2392714991365917</v>
+        <v>0.2374333203977403</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>217</v>
@@ -4243,19 +4243,19 @@
         <v>219865</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>193930</v>
+        <v>196764</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>246170</v>
+        <v>246572</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2132477072866374</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1880937761386708</v>
+        <v>0.1908420863994572</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2387609899400847</v>
+        <v>0.2391509372730056</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>502</v>
@@ -4264,19 +4264,19 @@
         <v>523036</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>484343</v>
+        <v>483296</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>565921</v>
+        <v>565519</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2137140920039368</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1979039992213159</v>
+        <v>0.1974762376784789</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2312367767879654</v>
+        <v>0.231072503578976</v>
       </c>
     </row>
     <row r="26">
@@ -4293,19 +4293,19 @@
         <v>769570</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5433523118892418</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>497</v>
@@ -4314,19 +4314,19 @@
         <v>513476</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>483614</v>
+        <v>480295</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>548227</v>
+        <v>543425</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.498022675534835</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.469059125112113</v>
+        <v>0.4658408710090554</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5317279512502816</v>
+        <v>0.5270709952606069</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1216</v>
@@ -4335,19 +4335,19 @@
         <v>1283045</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1236799</v>
+        <v>1234757</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1336357</v>
+        <v>1336265</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5242557957619131</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5053595175574637</v>
+        <v>0.504525131748658</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5460392969530802</v>
+        <v>0.5460014739174851</v>
       </c>
     </row>
     <row r="27">
